--- a/GILD.xlsx
+++ b/GILD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB99CABA-B79D-417C-9D38-A1F2BF4EA885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A957E7B4-2606-4F0C-8097-AF9DAA992AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52320" yWindow="5450" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38980" yWindow="1680" windowWidth="26400" windowHeight="18030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="41" r:id="rId1"/>
@@ -47,8 +47,8 @@
   </sheets>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
   <customWorkbookViews>
+    <customWorkbookView name="Martin Shkreli - Personal View" guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1250" windowHeight="882" activeSheetId="15"/>
     <customWorkbookView name="David Zheng - Personal View" guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="628" activeSheetId="4"/>
-    <customWorkbookView name="Martin Shkreli - Personal View" guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1250" windowHeight="882" activeSheetId="15"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1158,7 +1158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="814">
   <si>
     <t>Name</t>
   </si>
@@ -3597,6 +3597,9 @@
   </si>
   <si>
     <t>GS-3242</t>
+  </si>
+  <si>
+    <t>T2D</t>
   </si>
 </sst>
 </file>
@@ -20852,12 +20855,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -23014,12 +23017,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -23038,7 +23041,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23668,6 +23673,9 @@
       <c r="B36" s="94" t="s">
         <v>805</v>
       </c>
+      <c r="C36" s="95" t="s">
+        <v>813</v>
+      </c>
       <c r="E36" s="95" t="s">
         <v>322</v>
       </c>
@@ -23819,12 +23827,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
       <headerFooter alignWithMargins="0"/>
@@ -25173,13 +25181,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
@@ -25380,12 +25388,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="B3" sqref="B3"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="B3" sqref="B3"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -25492,12 +25500,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -26146,7 +26154,7 @@
   </sheetPr>
   <dimension ref="A1:GB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="CL5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -31503,7 +31511,7 @@
         <v>346</v>
       </c>
       <c r="CR23" s="132">
-        <f t="shared" ref="CQ23:CT23" si="39">+CN23</f>
+        <f t="shared" ref="CR23:CT23" si="39">+CN23</f>
         <v>476</v>
       </c>
       <c r="CS23" s="132">
@@ -52175,16 +52183,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" scale="90" showRuler="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" scale="90" showRuler="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" scale="90" showRuler="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" scale="90" showRuler="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
       <headerFooter alignWithMargins="0"/>
@@ -52388,11 +52396,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
@@ -52845,12 +52853,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -52964,6 +52966,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9771E67-9052-4CCB-BDDB-16EF0A4B87FE}">
   <ds:schemaRefs>
@@ -52973,21 +52981,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30672048-E020-437C-ACF6-FF8D6888F70E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{970FACA6-4FE8-43C1-9C92-1CB4DFD9972C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -53001,4 +52994,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30672048-E020-437C-ACF6-FF8D6888F70E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>